--- a/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407-22222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875DD296-3973-4F02-9016-E4C5825C1497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3DCF15-8441-4C54-A13D-B76A4BE6130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="173">
   <si>
     <t>CIA 1</t>
   </si>
@@ -55,36 +55,12 @@
     <t>File</t>
   </si>
   <si>
-    <t>Board layout 250425.png</t>
-  </si>
-  <si>
-    <t>Yes this is very fine also and 2222</t>
-  </si>
-  <si>
-    <t>pinout_6526.png</t>
-  </si>
-  <si>
     <t>Short one-liner description</t>
   </si>
   <si>
-    <t>I/O chip with Serial and Parallel port</t>
-  </si>
-  <si>
     <t>Pinout file</t>
   </si>
   <si>
-    <t>Datasheet file(s)</t>
-  </si>
-  <si>
-    <t>Link(s)</t>
-  </si>
-  <si>
-    <t>[The C64 PLA Dissected by Skoe|http://skoe.de/docs/c64-dissected/pla/c64_pla_dissected_a4ds.pdf]</t>
-  </si>
-  <si>
-    <t>[6526 Datasheet|mos_6526_cia.pdf]</t>
-  </si>
-  <si>
     <t>COMPONENTS</t>
   </si>
   <si>
@@ -103,249 +79,496 @@
     <t>U31</t>
   </si>
   <si>
-    <t>Clock Generator</t>
-  </si>
-  <si>
-    <t>bla.jpg</t>
-  </si>
-  <si>
-    <t>Generates the clock signal</t>
-  </si>
-  <si>
     <t># Commodore 64 (Breadbin) assy 250425</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Alternative Number:
-[list]8521[/list]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bold line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Italic line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strike-though line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Underline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Function:
-[list]The CIA (Complex Interface Adapter) is an I/O chip with parallel and serial port as well a time of day clock (TOD) and timers[/list]
-Used in:
-[list]Commodore 64[/list]
-[list]Commodore 128[/list]
-[list]1570/1571/1581 Drive[/list]</t>
-    </r>
-  </si>
-  <si>
     <t>Long description (basic formatting allowed)</t>
   </si>
   <si>
-    <t>10uF</t>
+    <t>Technical name or value</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>Logic NOT</t>
+  </si>
+  <si>
+    <t>IMAGES IN LIST</t>
+  </si>
+  <si>
+    <t>IMAGE / COMPONENT COLORS</t>
+  </si>
+  <si>
+    <t>Image name</t>
+  </si>
+  <si>
+    <t>Zoom-area color</t>
+  </si>
+  <si>
+    <t>Zoom-area opacity</t>
+  </si>
+  <si>
+    <t>List color</t>
+  </si>
+  <si>
+    <t>List opacity</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>IMAGE / COMPONENT HIGHLIGHT BOUNDS</t>
+  </si>
+  <si>
+    <t>Component label</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t># Commodore 64 (Breadbin), board 250407</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>U24</t>
+  </si>
+  <si>
+    <t>U25</t>
+  </si>
+  <si>
+    <t>U26</t>
+  </si>
+  <si>
+    <t>U27</t>
+  </si>
+  <si>
+    <t>U28</t>
+  </si>
+  <si>
+    <t>U29</t>
+  </si>
+  <si>
+    <t>U30</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>74LS257</t>
+  </si>
+  <si>
+    <t>74LS258</t>
+  </si>
+  <si>
+    <t>74LS139</t>
+  </si>
+  <si>
+    <t>LM556</t>
+  </si>
+  <si>
+    <t>74LS373</t>
+  </si>
+  <si>
+    <t>74LS08</t>
+  </si>
+  <si>
+    <t>74LS74</t>
+  </si>
+  <si>
+    <t>74LS193</t>
+  </si>
+  <si>
+    <t>74LS629</t>
+  </si>
+  <si>
+    <t>MC4044</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Multiplexor</t>
+  </si>
+  <si>
+    <t>Demultiplexor</t>
+  </si>
+  <si>
+    <t>Quad Bilateral Switch</t>
+  </si>
+  <si>
+    <t>Dual Timer</t>
+  </si>
+  <si>
+    <t>8 bit 3-state Latch</t>
+  </si>
+  <si>
+    <t>Logic AND</t>
+  </si>
+  <si>
+    <t>Dual D-type flip-flop</t>
+  </si>
+  <si>
+    <t>Binary Counter</t>
+  </si>
+  <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>I/O chip with serial and parallel port</t>
+  </si>
+  <si>
+    <t>pinout\6526.png</t>
+  </si>
+  <si>
+    <t>pinout\4164.png</t>
+  </si>
+  <si>
+    <t>pinout\2364.png</t>
+  </si>
+  <si>
+    <t>pinout\2332.png</t>
+  </si>
+  <si>
+    <t>pinout\6510.png</t>
+  </si>
+  <si>
+    <t>pinout\906114-01.png</t>
+  </si>
+  <si>
+    <t>pinout\6581.png</t>
+  </si>
+  <si>
+    <t>pinout\PLA 6569.png</t>
+  </si>
+  <si>
+    <t>Memory location: $DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Memory location: $DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>Basic ROM</t>
+  </si>
+  <si>
+    <t>Memory location: $A000-$BFFF</t>
+  </si>
+  <si>
+    <t>Kernal ROM</t>
+  </si>
+  <si>
+    <t>Memory location: $E000-$FFFF</t>
+  </si>
+  <si>
+    <t>Character ROM</t>
+  </si>
+  <si>
+    <t>Memory location: $D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Memory location: $D800-$DBFF</t>
+  </si>
+  <si>
+    <t>Hex Inverter</t>
+  </si>
+  <si>
+    <t>DRAM</t>
+  </si>
+  <si>
+    <t>64K x 1bit D1</t>
+  </si>
+  <si>
+    <t>64K x 1bit D3</t>
+  </si>
+  <si>
+    <t>64K x 1bit D5</t>
+  </si>
+  <si>
+    <t>64K x 1bit D7</t>
+  </si>
+  <si>
+    <t>2114L-30</t>
+  </si>
+  <si>
+    <t>SRAM</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>906114-01</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>Memory location: $D400-$D7FF</t>
+  </si>
+  <si>
+    <t>VIC-II</t>
+  </si>
+  <si>
+    <t>NTSC: 6569
+PAL: 6567
+Memory location: $D000-$D3FF</t>
+  </si>
+  <si>
+    <t>64K x 1bit D0</t>
+  </si>
+  <si>
+    <t>64K x 1bit D2</t>
+  </si>
+  <si>
+    <t>64K x 1bit D4</t>
+  </si>
+  <si>
+    <t>64K x 1bit D6</t>
+  </si>
+  <si>
+    <t>Logic Phase Detector</t>
+  </si>
+  <si>
+    <t>Schematics 1 of 2 (251138).gif</t>
+  </si>
+  <si>
+    <t>Schematics 1 of 2</t>
+  </si>
+  <si>
+    <t>Schematics 2 of 2 (251138).gif</t>
+  </si>
+  <si>
+    <t>Schematics 2 of 2</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C45</t>
   </si>
   <si>
     <t>Capacitor</t>
   </si>
   <si>
-    <t>c8.jpg</t>
-  </si>
-  <si>
-    <t>Stabalizes XYZ</t>
-  </si>
-  <si>
-    <t>Technical name or value</t>
-  </si>
-  <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>1100uF</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>Logic NOT</t>
-  </si>
-  <si>
-    <t>Yes.gif</t>
-  </si>
-  <si>
-    <t>Inverts its signal</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>resistor.jpg</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>25C1815</t>
-  </si>
-  <si>
-    <t>Transitor</t>
-  </si>
-  <si>
-    <t>CR100</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>U1+1</t>
-  </si>
-  <si>
-    <t>U2+2</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>IMAGES IN LIST</t>
-  </si>
-  <si>
-    <t>IMAGE / COMPONENT COLORS</t>
-  </si>
-  <si>
-    <t>Image name</t>
-  </si>
-  <si>
-    <t>Zoom-area color</t>
-  </si>
-  <si>
-    <t>Zoom-area opacity</t>
-  </si>
-  <si>
-    <t>List color</t>
-  </si>
-  <si>
-    <t>List opacity</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Print, Top</t>
-  </si>
-  <si>
-    <t>IMAGE / COMPONENT HIGHLIGHT BOUNDS</t>
-  </si>
-  <si>
-    <t>Component label</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t># Commodore 64 (Breadbin), board 250407</t>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C94</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C93</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>Color RAM, 1K x 4bit</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>220pF</t>
+  </si>
+  <si>
+    <t>1000pF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,30 +586,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -467,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -507,6 +706,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,24 +1036,24 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -854,80 +1066,82 @@
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>6526</v>
@@ -936,27 +1150,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>6526</v>
@@ -965,147 +1173,895 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>8701</v>
+        <v>2364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="1">
+        <v>2364</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2332</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6510</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
         <v>7406</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B15" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4066</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6581</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6567</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4066</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
+      <c r="D54" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,9 +2088,9 @@
     <col min="6" max="6" width="8.88671875" style="10" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1143,69 +2099,69 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C6" s="13">
         <v>0.75</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13">
         <v>0.75</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1213,91 +2169,2023 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1206</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2039</v>
+      </c>
+      <c r="E12" s="10">
+        <f>G12-C12</f>
+        <v>42</v>
+      </c>
+      <c r="F12" s="10">
+        <f>H12-D12</f>
+        <v>43</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1248</v>
+      </c>
+      <c r="H12" s="10">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1751</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2043</v>
+      </c>
+      <c r="E13" s="10">
+        <f>G13-C13</f>
+        <v>55</v>
+      </c>
+      <c r="F13" s="10">
+        <f>H13-D13</f>
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1806</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1484</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2036</v>
+      </c>
+      <c r="E14" s="10">
+        <f>G14-C14</f>
+        <v>44</v>
+      </c>
+      <c r="F14" s="10">
+        <f>H14-D14</f>
+        <v>43</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1528</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2558</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1649</v>
+      </c>
+      <c r="E15" s="10">
+        <f>G15-C15</f>
+        <v>62</v>
+      </c>
+      <c r="F15" s="10">
+        <f>H15-D15</f>
+        <v>90</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2620</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3089</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1737</v>
+      </c>
+      <c r="E16" s="10">
+        <f>G16-C16</f>
+        <v>101</v>
+      </c>
+      <c r="F16" s="10">
+        <f>H16-D16</f>
+        <v>42</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3190</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3092</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1821</v>
+      </c>
+      <c r="E17" s="10">
+        <f>G17-C17</f>
+        <v>97</v>
+      </c>
+      <c r="F17" s="10">
+        <f>H17-D17</f>
+        <v>39</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3189</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3478</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1931</v>
+      </c>
+      <c r="E18" s="10">
+        <f>G18-C18</f>
+        <v>69</v>
+      </c>
+      <c r="F18" s="10">
+        <f>H18-D18</f>
+        <v>89</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3547</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3756</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1701</v>
+      </c>
+      <c r="E19" s="10">
+        <f>G19-C19</f>
+        <v>73</v>
+      </c>
+      <c r="F19" s="10">
+        <f>H19-D19</f>
+        <v>60</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3829</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2030</v>
+      </c>
+      <c r="D20" s="10">
+        <v>647</v>
+      </c>
+      <c r="E20" s="10">
+        <f>G20-C20</f>
+        <v>112</v>
+      </c>
+      <c r="F20" s="10">
+        <f>H20-D20</f>
+        <v>73</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2142</v>
+      </c>
+      <c r="H20" s="10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3323</v>
+      </c>
+      <c r="D21" s="10">
+        <v>642</v>
+      </c>
+      <c r="E21" s="10">
+        <f>G21-C21</f>
+        <v>91</v>
+      </c>
+      <c r="F21" s="10">
+        <f>H21-D21</f>
+        <v>34</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3414</v>
+      </c>
+      <c r="H21" s="10">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3429</v>
+      </c>
+      <c r="D22" s="10">
+        <v>643</v>
+      </c>
+      <c r="E22" s="10">
+        <f>G22-C22</f>
+        <v>77</v>
+      </c>
+      <c r="F22" s="10">
+        <f>H22-D22</f>
+        <v>34</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3506</v>
+      </c>
+      <c r="H22" s="10">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1835</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2771</v>
+      </c>
+      <c r="E23" s="10">
+        <f>G23-C23</f>
+        <v>98</v>
+      </c>
+      <c r="F23" s="10">
+        <f>H23-D23</f>
+        <v>66</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1933</v>
+      </c>
+      <c r="H23" s="10">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1775</v>
+      </c>
+      <c r="D24" s="10">
+        <v>647</v>
+      </c>
+      <c r="E24" s="10">
+        <f>G24-C24</f>
+        <v>89</v>
+      </c>
+      <c r="F24" s="10">
+        <f>H24-D24</f>
+        <v>38</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1864</v>
+      </c>
+      <c r="H24" s="10">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1547</v>
+      </c>
+      <c r="D25" s="10">
+        <v>642</v>
+      </c>
+      <c r="E25" s="10">
+        <f>G25-C25</f>
+        <v>86</v>
+      </c>
+      <c r="F25" s="10">
+        <f>H25-D25</f>
+        <v>48</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1633</v>
+      </c>
+      <c r="H25" s="10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1306</v>
+      </c>
+      <c r="D26" s="10">
+        <v>646</v>
+      </c>
+      <c r="E26" s="10">
+        <f>G26-C26</f>
+        <v>94</v>
+      </c>
+      <c r="F26" s="10">
+        <f>H26-D26</f>
+        <v>40</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1400</v>
+      </c>
+      <c r="H26" s="10">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1075</v>
+      </c>
+      <c r="D27" s="10">
+        <v>645</v>
+      </c>
+      <c r="E27" s="10">
+        <f>G27-C27</f>
+        <v>93</v>
+      </c>
+      <c r="F27" s="10">
+        <f>H27-D27</f>
+        <v>67</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1168</v>
+      </c>
+      <c r="H27" s="10">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="10">
+        <v>914</v>
+      </c>
+      <c r="D28" s="10">
+        <v>649</v>
+      </c>
+      <c r="E28" s="10">
+        <f>G28-C28</f>
+        <v>56</v>
+      </c>
+      <c r="F28" s="10">
+        <f>H28-D28</f>
+        <v>61</v>
+      </c>
+      <c r="G28" s="10">
+        <v>970</v>
+      </c>
+      <c r="H28" s="10">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2509</v>
+      </c>
+      <c r="D29" s="10">
+        <v>826</v>
+      </c>
+      <c r="E29" s="10">
+        <f>G29-C29</f>
+        <v>54</v>
+      </c>
+      <c r="F29" s="10">
+        <f>H29-D29</f>
+        <v>49</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2563</v>
+      </c>
+      <c r="H29" s="10">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2245</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2310</v>
+      </c>
+      <c r="E30" s="10">
+        <f>G30-C30</f>
+        <v>55</v>
+      </c>
+      <c r="F30" s="10">
+        <f>H30-D30</f>
+        <v>67</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2300</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2520</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1363</v>
+      </c>
+      <c r="E31" s="10">
+        <f>G31-C31</f>
+        <v>51</v>
+      </c>
+      <c r="F31" s="10">
+        <f>H31-D31</f>
+        <v>60</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2571</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1444</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2442</v>
+      </c>
+      <c r="E32" s="10">
+        <f>G32-C32</f>
+        <v>89</v>
+      </c>
+      <c r="F32" s="10">
+        <f>H32-D32</f>
+        <v>51</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1533</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3630</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1486</v>
+      </c>
+      <c r="E33" s="10">
+        <f>G33-C33</f>
+        <v>97</v>
+      </c>
+      <c r="F33" s="10">
+        <f>H33-D33</f>
+        <v>33</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3727</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3556</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1685</v>
+      </c>
+      <c r="E34" s="10">
+        <f>G34-C34</f>
+        <v>99</v>
+      </c>
+      <c r="F34" s="10">
+        <f>H34-D34</f>
+        <v>44</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3655</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1895</v>
+      </c>
+      <c r="D35" s="10">
+        <v>643</v>
+      </c>
+      <c r="E35" s="10">
+        <f>G35-C35</f>
+        <v>83</v>
+      </c>
+      <c r="F35" s="10">
+        <f>H35-D35</f>
+        <v>40</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1978</v>
+      </c>
+      <c r="H35" s="10">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1663</v>
+      </c>
+      <c r="D36" s="10">
+        <v>646</v>
+      </c>
+      <c r="E36" s="10">
+        <f>G36-C36</f>
+        <v>84</v>
+      </c>
+      <c r="F36" s="10">
+        <f>H36-D36</f>
+        <v>42</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1747</v>
+      </c>
+      <c r="H36" s="10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1431</v>
+      </c>
+      <c r="D37" s="10">
+        <v>648</v>
+      </c>
+      <c r="E37" s="10">
+        <f>G37-C37</f>
+        <v>84</v>
+      </c>
+      <c r="F37" s="10">
+        <f>H37-D37</f>
+        <v>42</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1515</v>
+      </c>
+      <c r="H37" s="10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1196</v>
+      </c>
+      <c r="D38" s="10">
+        <v>645</v>
+      </c>
+      <c r="E38" s="10">
+        <f>G38-C38</f>
+        <v>89</v>
+      </c>
+      <c r="F38" s="10">
+        <f>H38-D38</f>
+        <v>46</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1285</v>
+      </c>
+      <c r="H38" s="10">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="10">
+        <v>917</v>
+      </c>
+      <c r="D39" s="10">
+        <v>940</v>
+      </c>
+      <c r="E39" s="10">
+        <f>G39-C39</f>
+        <v>36</v>
+      </c>
+      <c r="F39" s="10">
+        <f>H39-D39</f>
+        <v>51</v>
+      </c>
+      <c r="G39" s="10">
+        <v>953</v>
+      </c>
+      <c r="H39" s="10">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2089</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1342</v>
+      </c>
+      <c r="E40" s="10">
+        <f>G40-C40</f>
+        <v>103</v>
+      </c>
+      <c r="F40" s="10">
+        <f>H40-D40</f>
         <v>52</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="G40" s="10">
+        <v>2192</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3143</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1605</v>
+      </c>
+      <c r="E41" s="10">
+        <f>G41-C41</f>
+        <v>83</v>
+      </c>
+      <c r="F41" s="10">
+        <f>H41-D41</f>
+        <v>47</v>
+      </c>
+      <c r="G41" s="10">
+        <v>3226</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3530</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1488</v>
+      </c>
+      <c r="E42" s="10">
+        <f>G42-C42</f>
+        <v>87</v>
+      </c>
+      <c r="F42" s="10">
+        <f>H42-D42</f>
+        <v>30</v>
+      </c>
+      <c r="G42" s="10">
+        <v>3617</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3419</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1490</v>
+      </c>
+      <c r="E43" s="10">
+        <f>G43-C43</f>
+        <v>84</v>
+      </c>
+      <c r="F43" s="10">
+        <f>H43-D43</f>
+        <v>25</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3503</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3420</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1371</v>
+      </c>
+      <c r="E44" s="10">
+        <f>G44-C44</f>
+        <v>81</v>
+      </c>
+      <c r="F44" s="10">
+        <f>H44-D44</f>
+        <v>27</v>
+      </c>
+      <c r="G44" s="10">
+        <v>3501</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3529</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1371</v>
+      </c>
+      <c r="E45" s="10">
+        <f>G45-C45</f>
+        <v>88</v>
+      </c>
+      <c r="F45" s="10">
+        <f>H45-D45</f>
+        <v>28</v>
+      </c>
+      <c r="G45" s="10">
+        <v>3617</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2774</v>
+      </c>
+      <c r="D46" s="10">
+        <v>938</v>
+      </c>
+      <c r="E46" s="10">
+        <f>G46-C46</f>
+        <v>31</v>
+      </c>
+      <c r="F46" s="10">
+        <f>H46-D46</f>
+        <v>40</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2805</v>
+      </c>
+      <c r="H46" s="10">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="10">
+        <v>2831</v>
+      </c>
+      <c r="D47" s="10">
+        <v>939</v>
+      </c>
+      <c r="E47" s="10">
+        <f>G47-C47</f>
+        <v>42</v>
+      </c>
+      <c r="F47" s="10">
+        <f>H47-D47</f>
+        <v>37</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2873</v>
+      </c>
+      <c r="H47" s="10">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3060</v>
+      </c>
+      <c r="D48" s="10">
+        <v>636</v>
+      </c>
+      <c r="E48" s="10">
+        <f>G48-C48</f>
+        <v>43</v>
+      </c>
+      <c r="F48" s="10">
+        <f>H48-D48</f>
+        <v>46</v>
+      </c>
+      <c r="G48" s="10">
+        <v>3103</v>
+      </c>
+      <c r="H48" s="10">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3629</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1370</v>
+      </c>
+      <c r="E49" s="10">
+        <f>G49-C49</f>
+        <v>98</v>
+      </c>
+      <c r="F49" s="10">
+        <f>H49-D49</f>
+        <v>33</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3727</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3064</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1604</v>
+      </c>
+      <c r="E50" s="10">
+        <f>G50-C50</f>
+        <v>77</v>
+      </c>
+      <c r="F50" s="10">
+        <f>H50-D50</f>
+        <v>37</v>
+      </c>
+      <c r="G50" s="10">
+        <v>3141</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2731</v>
+      </c>
+      <c r="D51" s="10">
+        <v>936</v>
+      </c>
+      <c r="E51" s="10">
+        <f>G51-C51</f>
+        <v>39</v>
+      </c>
+      <c r="F51" s="10">
+        <f>H51-D51</f>
+        <v>42</v>
+      </c>
+      <c r="G51" s="10">
+        <v>2770</v>
+      </c>
+      <c r="H51" s="10">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2986</v>
+      </c>
+      <c r="D52" s="10">
+        <v>623</v>
+      </c>
+      <c r="E52" s="10">
+        <f>G52-C52</f>
         <v>62</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="F52" s="10">
+        <f>H52-D52</f>
+        <v>56</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3048</v>
+      </c>
+      <c r="H52" s="10">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2307</v>
+      </c>
+      <c r="D53" s="10">
+        <v>610</v>
+      </c>
+      <c r="E53" s="10">
+        <f>G53-C53</f>
+        <v>127</v>
+      </c>
+      <c r="F53" s="10">
+        <f>H53-D53</f>
+        <v>56</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2434</v>
+      </c>
+      <c r="H53" s="10">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="10">
+        <v>745</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1308</v>
+      </c>
+      <c r="E54" s="10">
+        <f>G54-C54</f>
+        <v>140</v>
+      </c>
+      <c r="F54" s="10">
+        <f>H54-D54</f>
+        <v>38</v>
+      </c>
+      <c r="G54" s="10">
+        <v>885</v>
+      </c>
+      <c r="H54" s="10">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="10">
+        <v>930</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1216</v>
+      </c>
+      <c r="E55" s="10">
+        <f>G55-C55</f>
+        <v>52</v>
+      </c>
+      <c r="F55" s="10">
+        <f>H55-D55</f>
+        <v>48</v>
+      </c>
+      <c r="G55" s="10">
+        <v>982</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="10">
+        <v>3587</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1766</v>
+      </c>
+      <c r="E56" s="10">
+        <f>G56-C56</f>
+        <v>95</v>
+      </c>
+      <c r="F56" s="10">
+        <f>H56-D56</f>
+        <v>114</v>
+      </c>
+      <c r="G56" s="10">
+        <v>3682</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="10">
+        <v>1248</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1682</v>
+      </c>
+      <c r="E57" s="10">
+        <f>G57-C57</f>
+        <v>206</v>
+      </c>
+      <c r="F57" s="10">
+        <f>H57-D57</f>
+        <v>351</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1454</v>
+      </c>
+      <c r="H57" s="10">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1525</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1683</v>
+      </c>
+      <c r="E58" s="10">
+        <f>G58-C58</f>
+        <v>204</v>
+      </c>
+      <c r="F58" s="10">
+        <f>H58-D58</f>
+        <v>349</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1729</v>
+      </c>
+      <c r="H58" s="10">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1804</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1681</v>
+      </c>
+      <c r="E59" s="10">
+        <f>G59-C59</f>
+        <v>203</v>
+      </c>
+      <c r="F59" s="10">
+        <f>H59-D59</f>
+        <v>348</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2007</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="10">
+        <v>2675</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1676</v>
+      </c>
+      <c r="E60" s="10">
+        <f>G60-C60</f>
+        <v>114</v>
+      </c>
+      <c r="F60" s="10">
+        <f>H60-D60</f>
+        <v>349</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2789</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="10">
+        <v>860</v>
+      </c>
+      <c r="D61" s="10">
+        <v>560</v>
+      </c>
+      <c r="E61" s="10">
+        <f>G61-C61</f>
+        <v>107</v>
+      </c>
+      <c r="F61" s="10">
+        <f>H61-D61</f>
+        <v>78</v>
+      </c>
+      <c r="G61" s="10">
+        <v>967</v>
+      </c>
+      <c r="H61" s="10">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1776</v>
+      </c>
+      <c r="D62" s="10">
+        <v>732</v>
+      </c>
+      <c r="E62" s="10">
+        <f>G62-C62</f>
+        <v>119</v>
+      </c>
+      <c r="F62" s="10">
+        <f>H62-D62</f>
+        <v>537</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1895</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1543</v>
+      </c>
+      <c r="D63" s="10">
+        <v>733</v>
+      </c>
+      <c r="E63" s="10">
+        <f>G63-C63</f>
+        <v>120</v>
+      </c>
+      <c r="F63" s="10">
+        <f>H63-D63</f>
+        <v>535</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1663</v>
+      </c>
+      <c r="H63" s="10">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="10">
+        <v>1315</v>
+      </c>
+      <c r="D64" s="10">
+        <v>734</v>
+      </c>
+      <c r="E64" s="10">
+        <f>G64-C64</f>
+        <v>116</v>
+      </c>
+      <c r="F64" s="10">
+        <f>H64-D64</f>
+        <v>535</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1431</v>
+      </c>
+      <c r="H64" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1082</v>
+      </c>
+      <c r="D65" s="10">
+        <v>735</v>
+      </c>
+      <c r="E65" s="10">
+        <f>G65-C65</f>
+        <v>119</v>
+      </c>
+      <c r="F65" s="10">
+        <f>H65-D65</f>
+        <v>536</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1201</v>
+      </c>
+      <c r="H65" s="10">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="10">
+        <v>804</v>
+      </c>
+      <c r="D66" s="10">
+        <v>724</v>
+      </c>
+      <c r="E66" s="10">
+        <f>G66-C66</f>
+        <v>114</v>
+      </c>
+      <c r="F66" s="10">
+        <f>H66-D66</f>
+        <v>212</v>
+      </c>
+      <c r="G66" s="10">
+        <v>918</v>
+      </c>
+      <c r="H66" s="10">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2549</v>
+      </c>
+      <c r="D67" s="10">
+        <v>611</v>
+      </c>
+      <c r="E67" s="10">
+        <f>G67-C67</f>
+        <v>113</v>
+      </c>
+      <c r="F67" s="10">
+        <f>H67-D67</f>
+        <v>209</v>
+      </c>
+      <c r="G67" s="10">
+        <v>2662</v>
+      </c>
+      <c r="H67" s="10">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2193</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2392</v>
+      </c>
+      <c r="E68" s="10">
+        <f>G68-C68</f>
+        <v>76</v>
+      </c>
+      <c r="F68" s="10">
+        <f>H68-D68</f>
+        <v>116</v>
+      </c>
+      <c r="G68" s="10">
+        <v>2269</v>
+      </c>
+      <c r="H68" s="10">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2378</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2534</v>
+      </c>
+      <c r="E69" s="10">
+        <f>G69-C69</f>
+        <v>77</v>
+      </c>
+      <c r="F69" s="10">
+        <f>H69-D69</f>
+        <v>116</v>
+      </c>
+      <c r="G69" s="10">
+        <v>2455</v>
+      </c>
+      <c r="H69" s="10">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2548</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1233</v>
+      </c>
+      <c r="E70" s="10">
+        <f>G70-C70</f>
+        <v>113</v>
+      </c>
+      <c r="F70" s="10">
+        <f>H70-D70</f>
+        <v>113</v>
+      </c>
+      <c r="G70" s="10">
+        <v>2661</v>
+      </c>
+      <c r="H70" s="10">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1249</v>
+      </c>
+      <c r="D71" s="10">
+        <v>2198</v>
+      </c>
+      <c r="E71" s="10">
+        <f>G71-C71</f>
+        <v>136</v>
+      </c>
+      <c r="F71" s="10">
+        <f>H71-D71</f>
+        <v>403</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1385</v>
+      </c>
+      <c r="H71" s="10">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="10">
+        <v>3235</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1333</v>
+      </c>
+      <c r="E72" s="10">
+        <f>G72-C72</f>
+        <v>168</v>
+      </c>
+      <c r="F72" s="10">
+        <f>H72-D72</f>
+        <v>692</v>
+      </c>
+      <c r="G72" s="10">
+        <v>3403</v>
+      </c>
+      <c r="H72" s="10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1200</v>
-      </c>
-      <c r="D12" s="10">
-        <v>167</v>
-      </c>
-      <c r="E12" s="10">
-        <v>664</v>
-      </c>
-      <c r="F12" s="10">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2091</v>
-      </c>
-      <c r="D13" s="10">
-        <v>95</v>
-      </c>
-      <c r="E13" s="10">
-        <v>625</v>
-      </c>
-      <c r="F13" s="10">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10">
-        <v>237</v>
-      </c>
-      <c r="D14" s="10">
-        <v>167</v>
-      </c>
-      <c r="E14" s="10">
-        <v>664</v>
-      </c>
-      <c r="F14" s="10">
-        <v>653</v>
+      <c r="C73" s="10">
+        <v>2882</v>
+      </c>
+      <c r="D73" s="10">
+        <v>728</v>
+      </c>
+      <c r="E73" s="10">
+        <f>G73-C73</f>
+        <v>171</v>
+      </c>
+      <c r="F73" s="10">
+        <f>H73-D73</f>
+        <v>1133</v>
+      </c>
+      <c r="G73" s="10">
+        <v>3053</v>
+      </c>
+      <c r="H73" s="10">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1894</v>
+      </c>
+      <c r="D74" s="10">
+        <v>731</v>
+      </c>
+      <c r="E74" s="10">
+        <f>G74-C74</f>
+        <v>115</v>
+      </c>
+      <c r="F74" s="10">
+        <f>H74-D74</f>
+        <v>536</v>
+      </c>
+      <c r="G74" s="10">
+        <v>2009</v>
+      </c>
+      <c r="H74" s="10">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1663</v>
+      </c>
+      <c r="D75" s="10">
+        <v>734</v>
+      </c>
+      <c r="E75" s="10">
+        <f>G75-C75</f>
+        <v>113</v>
+      </c>
+      <c r="F75" s="10">
+        <f>H75-D75</f>
+        <v>535</v>
+      </c>
+      <c r="G75" s="10">
+        <v>1776</v>
+      </c>
+      <c r="H75" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1431</v>
+      </c>
+      <c r="D76" s="10">
+        <v>734</v>
+      </c>
+      <c r="E76" s="10">
+        <f>G76-C76</f>
+        <v>115</v>
+      </c>
+      <c r="F76" s="10">
+        <f>H76-D76</f>
+        <v>535</v>
+      </c>
+      <c r="G76" s="10">
+        <v>1546</v>
+      </c>
+      <c r="H76" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1199</v>
+      </c>
+      <c r="D77" s="10">
+        <v>736</v>
+      </c>
+      <c r="E77" s="10">
+        <f>G77-C77</f>
+        <v>115</v>
+      </c>
+      <c r="F77" s="10">
+        <f>H77-D77</f>
+        <v>534</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1314</v>
+      </c>
+      <c r="H77" s="10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="10">
+        <v>806</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1005</v>
+      </c>
+      <c r="E78" s="10">
+        <f>G78-C78</f>
+        <v>113</v>
+      </c>
+      <c r="F78" s="10">
+        <f>H78-D78</f>
+        <v>209</v>
+      </c>
+      <c r="G78" s="10">
+        <v>919</v>
+      </c>
+      <c r="H78" s="10">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="10">
+        <v>2193</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1234</v>
+      </c>
+      <c r="E79" s="10">
+        <f>G79-C79</f>
+        <v>203</v>
+      </c>
+      <c r="F79" s="10">
+        <f>H79-D79</f>
+        <v>115</v>
+      </c>
+      <c r="G79" s="10">
+        <v>2396</v>
+      </c>
+      <c r="H79" s="10">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="10">
+        <v>546</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1897</v>
+      </c>
+      <c r="E80" s="10">
+        <f>G80-C80</f>
+        <v>140</v>
+      </c>
+      <c r="F80" s="10">
+        <f>H80-D80</f>
+        <v>85</v>
+      </c>
+      <c r="G80" s="10">
+        <v>686</v>
+      </c>
+      <c r="H80" s="10">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="10">
+        <v>544</v>
+      </c>
+      <c r="D81" s="10">
+        <v>2358</v>
+      </c>
+      <c r="E81" s="10">
+        <f>G81-C81</f>
+        <v>133</v>
+      </c>
+      <c r="F81" s="10">
+        <f>H81-D81</f>
+        <v>92</v>
+      </c>
+      <c r="G81" s="10">
+        <v>677</v>
+      </c>
+      <c r="H81" s="10">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2553</v>
+      </c>
+      <c r="D82" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E82" s="10">
+        <f>G82-C82</f>
+        <v>113</v>
+      </c>
+      <c r="F82" s="10">
+        <f>H82-D82</f>
+        <v>69</v>
+      </c>
+      <c r="G82" s="10">
+        <v>2666</v>
+      </c>
+      <c r="H82" s="10">
+        <v>2092</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H82">
+    <sortCondition ref="B16:B82"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407-22222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3DCF15-8441-4C54-A13D-B76A4BE6130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496D69-642E-4A93-A692-1B955A942BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="174">
   <si>
     <t>CIA 1</t>
   </si>
@@ -79,9 +79,6 @@
     <t>U31</t>
   </si>
   <si>
-    <t># Commodore 64 (Breadbin) assy 250425</t>
-  </si>
-  <si>
     <t>Long description (basic formatting allowed)</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>List opacity</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>IMAGE / COMPONENT HIGHLIGHT BOUNDS</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
   </si>
   <si>
     <t>pinout\6581.png</t>
-  </si>
-  <si>
-    <t>pinout\PLA 6569.png</t>
   </si>
   <si>
     <t>Memory location: $DC00-$DCFF</t>
@@ -562,6 +553,18 @@
   </si>
   <si>
     <t>1000pF</t>
+  </si>
+  <si>
+    <t>&lt;--- the two "unknown" columns are not required - they just hold X/Y coordinates for calculating Width/Height</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>pinout\PAL 6569.png</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -697,15 +700,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -718,7 +712,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,51 +1047,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
+      <c r="B7" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1090,38 +1109,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15" style="15" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -1136,12 +1158,12 @@
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>6526</v>
@@ -1153,18 +1175,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="1">
         <v>6526</v>
@@ -1176,892 +1198,892 @@
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>2364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>35</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>2364</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>36</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>2332</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>37</v>
+      <c r="A11" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>38</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="1">
         <v>6510</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
+      <c r="A13" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>7406</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>4164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>40</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>4164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>41</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>4164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>42</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>4164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>43</v>
+      <c r="A18" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>44</v>
+      <c r="A19" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>45</v>
+      <c r="A20" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>46</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>4066</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>47</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>6581</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>49</v>
+      <c r="A24" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>6567</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>50</v>
+      <c r="A25" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>51</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>4164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>4164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>4164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>54</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>4164</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>55</v>
+      <c r="A30" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>56</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>57</v>
+      <c r="A32" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>58</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="1">
         <v>4066</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>59</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>60</v>
+      <c r="A35" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>61</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="D63" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="D78" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>170</v>
-      </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2072,129 +2094,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7" style="10" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="10" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>126</v>
       </c>
       <c r="C12" s="10">
         <v>1206</v>
@@ -2203,11 +2230,11 @@
         <v>2039</v>
       </c>
       <c r="E12" s="10">
-        <f>G12-C12</f>
+        <f t="shared" ref="E12:E43" si="0">G12-C12</f>
         <v>42</v>
       </c>
       <c r="F12" s="10">
-        <f>H12-D12</f>
+        <f t="shared" ref="F12:F43" si="1">H12-D12</f>
         <v>43</v>
       </c>
       <c r="G12" s="10">
@@ -2216,13 +2243,16 @@
       <c r="H12" s="10">
         <v>2082</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>136</v>
+        <v>117</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="10">
         <v>1751</v>
@@ -2231,11 +2261,11 @@
         <v>2043</v>
       </c>
       <c r="E13" s="10">
-        <f>G13-C13</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="F13" s="10">
-        <f>H13-D13</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G13" s="10">
@@ -2245,12 +2275,12 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C14" s="10">
         <v>1484</v>
@@ -2259,11 +2289,11 @@
         <v>2036</v>
       </c>
       <c r="E14" s="10">
-        <f>G14-C14</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="F14" s="10">
-        <f>H14-D14</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="G14" s="10">
@@ -2273,12 +2303,12 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="10">
         <v>2558</v>
@@ -2287,11 +2317,11 @@
         <v>1649</v>
       </c>
       <c r="E15" s="10">
-        <f>G15-C15</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="F15" s="10">
-        <f>H15-D15</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G15" s="10">
@@ -2301,12 +2331,12 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>154</v>
+        <v>117</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="C16" s="10">
         <v>3089</v>
@@ -2315,11 +2345,11 @@
         <v>1737</v>
       </c>
       <c r="E16" s="10">
-        <f>G16-C16</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="F16" s="10">
-        <f>H16-D16</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G16" s="10">
@@ -2331,10 +2361,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="C17" s="10">
         <v>3092</v>
@@ -2343,11 +2373,11 @@
         <v>1821</v>
       </c>
       <c r="E17" s="10">
-        <f>G17-C17</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="F17" s="10">
-        <f>H17-D17</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="G17" s="10">
@@ -2359,10 +2389,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>156</v>
+        <v>117</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="10">
         <v>3478</v>
@@ -2371,11 +2401,11 @@
         <v>1931</v>
       </c>
       <c r="E18" s="10">
-        <f>G18-C18</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="F18" s="10">
-        <f>H18-D18</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="G18" s="10">
@@ -2387,10 +2417,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>158</v>
+        <v>117</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C19" s="10">
         <v>3756</v>
@@ -2399,11 +2429,11 @@
         <v>1701</v>
       </c>
       <c r="E19" s="10">
-        <f>G19-C19</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="F19" s="10">
-        <f>H19-D19</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G19" s="10">
@@ -2415,10 +2445,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="10">
         <v>2030</v>
@@ -2427,11 +2457,11 @@
         <v>647</v>
       </c>
       <c r="E20" s="10">
-        <f>G20-C20</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="F20" s="10">
-        <f>H20-D20</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="G20" s="10">
@@ -2443,10 +2473,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>165</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="C21" s="10">
         <v>3323</v>
@@ -2455,11 +2485,11 @@
         <v>642</v>
       </c>
       <c r="E21" s="10">
-        <f>G21-C21</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="F21" s="10">
-        <f>H21-D21</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G21" s="10">
@@ -2471,10 +2501,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="10">
         <v>3429</v>
@@ -2483,11 +2513,11 @@
         <v>643</v>
       </c>
       <c r="E22" s="10">
-        <f>G22-C22</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="F22" s="10">
-        <f>H22-D22</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G22" s="10">
@@ -2499,10 +2529,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="10">
         <v>1835</v>
@@ -2511,11 +2541,11 @@
         <v>2771</v>
       </c>
       <c r="E23" s="10">
-        <f>G23-C23</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="F23" s="10">
-        <f>H23-D23</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="G23" s="10">
@@ -2527,10 +2557,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="10">
         <v>1775</v>
@@ -2539,11 +2569,11 @@
         <v>647</v>
       </c>
       <c r="E24" s="10">
-        <f>G24-C24</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="F24" s="10">
-        <f>H24-D24</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="G24" s="10">
@@ -2555,10 +2585,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="C25" s="10">
         <v>1547</v>
@@ -2567,11 +2597,11 @@
         <v>642</v>
       </c>
       <c r="E25" s="10">
-        <f>G25-C25</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="F25" s="10">
-        <f>H25-D25</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="G25" s="10">
@@ -2583,10 +2613,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>167</v>
+        <v>117</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="C26" s="10">
         <v>1306</v>
@@ -2595,11 +2625,11 @@
         <v>646</v>
       </c>
       <c r="E26" s="10">
-        <f>G26-C26</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="F26" s="10">
-        <f>H26-D26</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G26" s="10">
@@ -2611,10 +2641,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C27" s="10">
         <v>1075</v>
@@ -2623,11 +2653,11 @@
         <v>645</v>
       </c>
       <c r="E27" s="10">
-        <f>G27-C27</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="F27" s="10">
-        <f>H27-D27</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="G27" s="10">
@@ -2639,10 +2669,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="C28" s="10">
         <v>914</v>
@@ -2651,11 +2681,11 @@
         <v>649</v>
       </c>
       <c r="E28" s="10">
-        <f>G28-C28</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="F28" s="10">
-        <f>H28-D28</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="G28" s="10">
@@ -2667,10 +2697,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>148</v>
+        <v>117</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="C29" s="10">
         <v>2509</v>
@@ -2679,11 +2709,11 @@
         <v>826</v>
       </c>
       <c r="E29" s="10">
-        <f>G29-C29</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="F29" s="10">
-        <f>H29-D29</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="G29" s="10">
@@ -2695,10 +2725,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>142</v>
+        <v>117</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="C30" s="10">
         <v>2245</v>
@@ -2707,11 +2737,11 @@
         <v>2310</v>
       </c>
       <c r="E30" s="10">
-        <f>G30-C30</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="F30" s="10">
-        <f>H30-D30</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="G30" s="10">
@@ -2723,10 +2753,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C31" s="10">
         <v>2520</v>
@@ -2735,11 +2765,11 @@
         <v>1363</v>
       </c>
       <c r="E31" s="10">
-        <f>G31-C31</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="F31" s="10">
-        <f>H31-D31</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G31" s="10">
@@ -2751,10 +2781,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="10">
         <v>1444</v>
@@ -2763,11 +2793,11 @@
         <v>2442</v>
       </c>
       <c r="E32" s="10">
-        <f>G32-C32</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="F32" s="10">
-        <f>H32-D32</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="G32" s="10">
@@ -2779,10 +2809,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>161</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="C33" s="10">
         <v>3630</v>
@@ -2791,11 +2821,11 @@
         <v>1486</v>
       </c>
       <c r="E33" s="10">
-        <f>G33-C33</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="F33" s="10">
-        <f>H33-D33</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="G33" s="10">
@@ -2807,10 +2837,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>157</v>
+        <v>117</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C34" s="10">
         <v>3556</v>
@@ -2819,11 +2849,11 @@
         <v>1685</v>
       </c>
       <c r="E34" s="10">
-        <f>G34-C34</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="F34" s="10">
-        <f>H34-D34</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="G34" s="10">
@@ -2835,10 +2865,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="C35" s="10">
         <v>1895</v>
@@ -2847,11 +2877,11 @@
         <v>643</v>
       </c>
       <c r="E35" s="10">
-        <f>G35-C35</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="F35" s="10">
-        <f>H35-D35</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G35" s="10">
@@ -2863,10 +2893,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="10">
         <v>1663</v>
@@ -2875,11 +2905,11 @@
         <v>646</v>
       </c>
       <c r="E36" s="10">
-        <f>G36-C36</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F36" s="10">
-        <f>H36-D36</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G36" s="10">
@@ -2891,10 +2921,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="C37" s="10">
         <v>1431</v>
@@ -2903,11 +2933,11 @@
         <v>648</v>
       </c>
       <c r="E37" s="10">
-        <f>G37-C37</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F37" s="10">
-        <f>H37-D37</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="G37" s="10">
@@ -2919,10 +2949,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="C38" s="10">
         <v>1196</v>
@@ -2931,11 +2961,11 @@
         <v>645</v>
       </c>
       <c r="E38" s="10">
-        <f>G38-C38</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="F38" s="10">
-        <f>H38-D38</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="G38" s="10">
@@ -2947,10 +2977,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C39" s="10">
         <v>917</v>
@@ -2959,11 +2989,11 @@
         <v>940</v>
       </c>
       <c r="E39" s="10">
-        <f>G39-C39</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F39" s="10">
-        <f>H39-D39</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="G39" s="10">
@@ -2975,10 +3005,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="C40" s="10">
         <v>2089</v>
@@ -2987,11 +3017,11 @@
         <v>1342</v>
       </c>
       <c r="E40" s="10">
-        <f>G40-C40</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="F40" s="10">
-        <f>H40-D40</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="G40" s="10">
@@ -3003,10 +3033,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C41" s="10">
         <v>3143</v>
@@ -3015,11 +3045,11 @@
         <v>1605</v>
       </c>
       <c r="E41" s="10">
-        <f>G41-C41</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="F41" s="10">
-        <f>H41-D41</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="G41" s="10">
@@ -3031,10 +3061,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>160</v>
+        <v>117</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="C42" s="10">
         <v>3530</v>
@@ -3043,11 +3073,11 @@
         <v>1488</v>
       </c>
       <c r="E42" s="10">
-        <f>G42-C42</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="F42" s="10">
-        <f>H42-D42</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G42" s="10">
@@ -3059,10 +3089,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C43" s="10">
         <v>3419</v>
@@ -3071,11 +3101,11 @@
         <v>1490</v>
       </c>
       <c r="E43" s="10">
-        <f>G43-C43</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="F43" s="10">
-        <f>H43-D43</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G43" s="10">
@@ -3087,10 +3117,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>162</v>
+        <v>117</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="C44" s="10">
         <v>3420</v>
@@ -3099,11 +3129,11 @@
         <v>1371</v>
       </c>
       <c r="E44" s="10">
-        <f>G44-C44</f>
+        <f t="shared" ref="E44:E75" si="2">G44-C44</f>
         <v>81</v>
       </c>
       <c r="F44" s="10">
-        <f>H44-D44</f>
+        <f t="shared" ref="F44:F75" si="3">H44-D44</f>
         <v>27</v>
       </c>
       <c r="G44" s="10">
@@ -3115,10 +3145,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>163</v>
+        <v>117</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>160</v>
       </c>
       <c r="C45" s="10">
         <v>3529</v>
@@ -3127,11 +3157,11 @@
         <v>1371</v>
       </c>
       <c r="E45" s="10">
-        <f>G45-C45</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="F45" s="10">
-        <f>H45-D45</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="G45" s="10">
@@ -3143,10 +3173,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C46" s="10">
         <v>2774</v>
@@ -3155,11 +3185,11 @@
         <v>938</v>
       </c>
       <c r="E46" s="10">
-        <f>G46-C46</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="F46" s="10">
-        <f>H46-D46</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="G46" s="10">
@@ -3171,10 +3201,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C47" s="10">
         <v>2831</v>
@@ -3183,11 +3213,11 @@
         <v>939</v>
       </c>
       <c r="E47" s="10">
-        <f>G47-C47</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="F47" s="10">
-        <f>H47-D47</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="G47" s="10">
@@ -3199,10 +3229,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="C48" s="10">
         <v>3060</v>
@@ -3211,11 +3241,11 @@
         <v>636</v>
       </c>
       <c r="E48" s="10">
-        <f>G48-C48</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F48" s="10">
-        <f>H48-D48</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="G48" s="10">
@@ -3227,10 +3257,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>164</v>
+        <v>117</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="C49" s="10">
         <v>3629</v>
@@ -3239,11 +3269,11 @@
         <v>1370</v>
       </c>
       <c r="E49" s="10">
-        <f>G49-C49</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="F49" s="10">
-        <f>H49-D49</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="G49" s="10">
@@ -3255,10 +3285,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C50" s="10">
         <v>3064</v>
@@ -3267,11 +3297,11 @@
         <v>1604</v>
       </c>
       <c r="E50" s="10">
-        <f>G50-C50</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F50" s="10">
-        <f>H50-D50</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="G50" s="10">
@@ -3283,10 +3313,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="C51" s="10">
         <v>2731</v>
@@ -3295,11 +3325,11 @@
         <v>936</v>
       </c>
       <c r="E51" s="10">
-        <f>G51-C51</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="F51" s="10">
-        <f>H51-D51</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="G51" s="10">
@@ -3311,10 +3341,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C52" s="10">
         <v>2986</v>
@@ -3323,11 +3353,11 @@
         <v>623</v>
       </c>
       <c r="E52" s="10">
-        <f>G52-C52</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="F52" s="10">
-        <f>H52-D52</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G52" s="10">
@@ -3339,10 +3369,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="C53" s="10">
         <v>2307</v>
@@ -3351,11 +3381,11 @@
         <v>610</v>
       </c>
       <c r="E53" s="10">
-        <f>G53-C53</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="F53" s="10">
-        <f>H53-D53</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G53" s="10">
@@ -3367,10 +3397,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>124</v>
       </c>
       <c r="C54" s="10">
         <v>745</v>
@@ -3379,11 +3409,11 @@
         <v>1308</v>
       </c>
       <c r="E54" s="10">
-        <f>G54-C54</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="F54" s="10">
-        <f>H54-D54</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="G54" s="10">
@@ -3395,10 +3425,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="C55" s="10">
         <v>930</v>
@@ -3407,11 +3437,11 @@
         <v>1216</v>
       </c>
       <c r="E55" s="10">
-        <f>G55-C55</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F55" s="10">
-        <f>H55-D55</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="G55" s="10">
@@ -3423,10 +3453,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>170</v>
+        <v>117</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="C56" s="10">
         <v>3587</v>
@@ -3435,11 +3465,11 @@
         <v>1766</v>
       </c>
       <c r="E56" s="10">
-        <f>G56-C56</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F56" s="10">
-        <f>H56-D56</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="G56" s="10">
@@ -3451,10 +3481,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>34</v>
+        <v>117</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="C57" s="10">
         <v>1248</v>
@@ -3463,11 +3493,11 @@
         <v>1682</v>
       </c>
       <c r="E57" s="10">
-        <f>G57-C57</f>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="F57" s="10">
-        <f>H57-D57</f>
+        <f t="shared" si="3"/>
         <v>351</v>
       </c>
       <c r="G57" s="10">
@@ -3479,10 +3509,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>35</v>
+        <v>117</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C58" s="10">
         <v>1525</v>
@@ -3491,11 +3521,11 @@
         <v>1683</v>
       </c>
       <c r="E58" s="10">
-        <f>G58-C58</f>
+        <f t="shared" si="2"/>
         <v>204</v>
       </c>
       <c r="F58" s="10">
-        <f>H58-D58</f>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="G58" s="10">
@@ -3507,10 +3537,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>36</v>
+        <v>117</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C59" s="10">
         <v>1804</v>
@@ -3519,11 +3549,11 @@
         <v>1681</v>
       </c>
       <c r="E59" s="10">
-        <f>G59-C59</f>
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
       <c r="F59" s="10">
-        <f>H59-D59</f>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="G59" s="10">
@@ -3535,10 +3565,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>37</v>
+        <v>117</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C60" s="10">
         <v>2675</v>
@@ -3547,11 +3577,11 @@
         <v>1676</v>
       </c>
       <c r="E60" s="10">
-        <f>G60-C60</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F60" s="10">
-        <f>H60-D60</f>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="G60" s="10">
@@ -3563,10 +3593,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>117</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="C61" s="10">
         <v>860</v>
@@ -3575,11 +3605,11 @@
         <v>560</v>
       </c>
       <c r="E61" s="10">
-        <f>G61-C61</f>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="F61" s="10">
-        <f>H61-D61</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="G61" s="10">
@@ -3591,10 +3621,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C62" s="10">
         <v>1776</v>
@@ -3603,11 +3633,11 @@
         <v>732</v>
       </c>
       <c r="E62" s="10">
-        <f>G62-C62</f>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="F62" s="10">
-        <f>H62-D62</f>
+        <f t="shared" si="3"/>
         <v>537</v>
       </c>
       <c r="G62" s="10">
@@ -3619,10 +3649,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="C63" s="10">
         <v>1543</v>
@@ -3631,11 +3661,11 @@
         <v>733</v>
       </c>
       <c r="E63" s="10">
-        <f>G63-C63</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="F63" s="10">
-        <f>H63-D63</f>
+        <f t="shared" si="3"/>
         <v>535</v>
       </c>
       <c r="G63" s="10">
@@ -3647,10 +3677,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>41</v>
+        <v>117</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C64" s="10">
         <v>1315</v>
@@ -3659,11 +3689,11 @@
         <v>734</v>
       </c>
       <c r="E64" s="10">
-        <f>G64-C64</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="F64" s="10">
-        <f>H64-D64</f>
+        <f t="shared" si="3"/>
         <v>535</v>
       </c>
       <c r="G64" s="10">
@@ -3675,10 +3705,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>42</v>
+        <v>117</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C65" s="10">
         <v>1082</v>
@@ -3687,11 +3717,11 @@
         <v>735</v>
       </c>
       <c r="E65" s="10">
-        <f>G65-C65</f>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="F65" s="10">
-        <f>H65-D65</f>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="G65" s="10">
@@ -3703,10 +3733,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="C66" s="10">
         <v>804</v>
@@ -3715,11 +3745,11 @@
         <v>724</v>
       </c>
       <c r="E66" s="10">
-        <f>G66-C66</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F66" s="10">
-        <f>H66-D66</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="G66" s="10">
@@ -3731,10 +3761,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>44</v>
+        <v>117</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C67" s="10">
         <v>2549</v>
@@ -3743,11 +3773,11 @@
         <v>611</v>
       </c>
       <c r="E67" s="10">
-        <f>G67-C67</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F67" s="10">
-        <f>H67-D67</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="G67" s="10">
@@ -3759,10 +3789,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C68" s="10">
         <v>2193</v>
@@ -3771,11 +3801,11 @@
         <v>2392</v>
       </c>
       <c r="E68" s="10">
-        <f>G68-C68</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="F68" s="10">
-        <f>H68-D68</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="G68" s="10">
@@ -3787,10 +3817,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C69" s="10">
         <v>2378</v>
@@ -3799,11 +3829,11 @@
         <v>2534</v>
       </c>
       <c r="E69" s="10">
-        <f>G69-C69</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="F69" s="10">
-        <f>H69-D69</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="G69" s="10">
@@ -3815,10 +3845,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C70" s="10">
         <v>2548</v>
@@ -3827,11 +3857,11 @@
         <v>1233</v>
       </c>
       <c r="E70" s="10">
-        <f>G70-C70</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F70" s="10">
-        <f>H70-D70</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="G70" s="10">
@@ -3843,10 +3873,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>47</v>
+        <v>117</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="C71" s="10">
         <v>1249</v>
@@ -3855,11 +3885,11 @@
         <v>2198</v>
       </c>
       <c r="E71" s="10">
-        <f>G71-C71</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="F71" s="10">
-        <f>H71-D71</f>
+        <f t="shared" si="3"/>
         <v>403</v>
       </c>
       <c r="G71" s="10">
@@ -3871,10 +3901,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>48</v>
+        <v>117</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C72" s="10">
         <v>3235</v>
@@ -3883,11 +3913,11 @@
         <v>1333</v>
       </c>
       <c r="E72" s="10">
-        <f>G72-C72</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="F72" s="10">
-        <f>H72-D72</f>
+        <f t="shared" si="3"/>
         <v>692</v>
       </c>
       <c r="G72" s="10">
@@ -3899,10 +3929,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>49</v>
+        <v>117</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C73" s="10">
         <v>2882</v>
@@ -3911,11 +3941,11 @@
         <v>728</v>
       </c>
       <c r="E73" s="10">
-        <f>G73-C73</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="F73" s="10">
-        <f>H73-D73</f>
+        <f t="shared" si="3"/>
         <v>1133</v>
       </c>
       <c r="G73" s="10">
@@ -3927,10 +3957,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C74" s="10">
         <v>1894</v>
@@ -3939,11 +3969,11 @@
         <v>731</v>
       </c>
       <c r="E74" s="10">
-        <f>G74-C74</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="F74" s="10">
-        <f>H74-D74</f>
+        <f t="shared" si="3"/>
         <v>536</v>
       </c>
       <c r="G74" s="10">
@@ -3955,10 +3985,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>52</v>
+        <v>117</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="C75" s="10">
         <v>1663</v>
@@ -3967,11 +3997,11 @@
         <v>734</v>
       </c>
       <c r="E75" s="10">
-        <f>G75-C75</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F75" s="10">
-        <f>H75-D75</f>
+        <f t="shared" si="3"/>
         <v>535</v>
       </c>
       <c r="G75" s="10">
@@ -3983,10 +4013,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>53</v>
+        <v>117</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C76" s="10">
         <v>1431</v>
@@ -3995,11 +4025,11 @@
         <v>734</v>
       </c>
       <c r="E76" s="10">
-        <f>G76-C76</f>
+        <f t="shared" ref="E76:E82" si="4">G76-C76</f>
         <v>115</v>
       </c>
       <c r="F76" s="10">
-        <f>H76-D76</f>
+        <f t="shared" ref="F76:F82" si="5">H76-D76</f>
         <v>535</v>
       </c>
       <c r="G76" s="10">
@@ -4011,10 +4041,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>54</v>
+        <v>117</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C77" s="10">
         <v>1199</v>
@@ -4023,11 +4053,11 @@
         <v>736</v>
       </c>
       <c r="E77" s="10">
-        <f>G77-C77</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="F77" s="10">
-        <f>H77-D77</f>
+        <f t="shared" si="5"/>
         <v>534</v>
       </c>
       <c r="G77" s="10">
@@ -4039,10 +4069,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>55</v>
+        <v>117</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C78" s="10">
         <v>806</v>
@@ -4051,11 +4081,11 @@
         <v>1005</v>
       </c>
       <c r="E78" s="10">
-        <f>G78-C78</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="F78" s="10">
-        <f>H78-D78</f>
+        <f t="shared" si="5"/>
         <v>209</v>
       </c>
       <c r="G78" s="10">
@@ -4067,10 +4097,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C79" s="10">
         <v>2193</v>
@@ -4079,11 +4109,11 @@
         <v>1234</v>
       </c>
       <c r="E79" s="10">
-        <f>G79-C79</f>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="F79" s="10">
-        <f>H79-D79</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="G79" s="10">
@@ -4095,10 +4125,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C80" s="10">
         <v>546</v>
@@ -4107,11 +4137,11 @@
         <v>1897</v>
       </c>
       <c r="E80" s="10">
-        <f>G80-C80</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="F80" s="10">
-        <f>H80-D80</f>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="G80" s="10">
@@ -4123,10 +4153,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C81" s="10">
         <v>544</v>
@@ -4135,11 +4165,11 @@
         <v>2358</v>
       </c>
       <c r="E81" s="10">
-        <f>G81-C81</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="F81" s="10">
-        <f>H81-D81</f>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="G81" s="10">
@@ -4151,10 +4181,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>57</v>
+        <v>117</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C82" s="10">
         <v>2553</v>
@@ -4163,11 +4193,11 @@
         <v>2023</v>
       </c>
       <c r="E82" s="10">
-        <f>G82-C82</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="F82" s="10">
-        <f>H82-D82</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="G82" s="10">

--- a/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407-22222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496D69-642E-4A93-A692-1B955A942BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D7DF4-6406-41D0-A24B-8155D27167DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="206">
   <si>
     <t>CIA 1</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>Kernal ROM</t>
-  </si>
-  <si>
-    <t>Memory location: $E000-$FFFF</t>
   </si>
   <si>
     <t>Character ROM</t>
@@ -565,13 +562,115 @@
   </si>
   <si>
     <t>pinout\PAL 6569.png</t>
+  </si>
+  <si>
+    <t>Memory location: $E000-$FFFF.
+8k x 8bit PROM used as ROM in several Commodore (and other) computer systems.
+The PROM is not pin compatible with the 2764 EPROM.
+To use an EPROM you need to create a adapter.</t>
+  </si>
+  <si>
+    <t>COMPONENT LINKS</t>
+  </si>
+  <si>
+    <t>Link name</t>
+  </si>
+  <si>
+    <t>Link URL</t>
+  </si>
+  <si>
+    <t>URL 1</t>
+  </si>
+  <si>
+    <t>URL 2</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>URL 4</t>
+  </si>
+  <si>
+    <t>COMPONENT LOCAL FILES</t>
+  </si>
+  <si>
+    <t>Datasheets\2364-Commodore.pdf</t>
+  </si>
+  <si>
+    <t>http://dennis.dk/1</t>
+  </si>
+  <si>
+    <t>http://dennis.dk/2</t>
+  </si>
+  <si>
+    <t>http://dennis.dk/3</t>
+  </si>
+  <si>
+    <t>http://dennis.dk/4</t>
+  </si>
+  <si>
+    <t>Datasheet for 2364</t>
+  </si>
+  <si>
+    <t>TRIVIA START</t>
+  </si>
+  <si>
+    <t>TRIVIA END</t>
+  </si>
+  <si>
+    <t>250407-01 (A (CR))</t>
+  </si>
+  <si>
+    <t>8-pin board (CN5-Video port has 8 pins).</t>
+  </si>
+  <si>
+    <t>PCB Assembly Number 250407-04.</t>
+  </si>
+  <si>
+    <t>Schematic Number 251138.</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING START</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTIN END</t>
+  </si>
+  <si>
+    <t>LINKS START</t>
+  </si>
+  <si>
+    <t>LINKS END</t>
+  </si>
+  <si>
+    <t>Pictorial guides:</t>
+  </si>
+  <si>
+    <t>Lemon64</t>
+  </si>
+  <si>
+    <t>MyOldComputer</t>
+  </si>
+  <si>
+    <t>More stuff</t>
+  </si>
+  <si>
+    <t>C64 250407 PCB Replica.1.1.F.png</t>
+  </si>
+  <si>
+    <t>C64 250407 PCB Replica.1.1.B.png</t>
+  </si>
+  <si>
+    <t>PCB Replica, Back</t>
+  </si>
+  <si>
+    <t>PCB Replica, Front</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +693,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -609,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -665,11 +772,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -713,9 +830,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -733,8 +847,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,9 +1184,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB56770-8233-4B8D-A81F-EDDC9713B054}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1085,18 +1224,34 @@
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1107,11 +1262,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1129,9 +1282,9 @@
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -1227,7 +1380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>33</v>
       </c>
@@ -1244,7 +1397,7 @@
         <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1255,7 +1408,7 @@
         <v>2332</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1264,7 +1417,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1272,19 +1425,19 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1318,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1329,7 +1482,7 @@
         <v>4164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1338,7 +1491,7 @@
         <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1349,7 +1502,7 @@
         <v>4164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -1358,7 +1511,7 @@
         <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1369,7 +1522,7 @@
         <v>4164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1378,7 +1531,7 @@
         <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,7 +1542,7 @@
         <v>4164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1398,7 +1551,7 @@
         <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1462,10 +1615,10 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1482,7 +1635,7 @@
         <v>6581</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1491,7 +1644,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -1502,16 +1655,16 @@
         <v>6567</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1536,7 +1689,7 @@
         <v>4164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -1545,7 +1698,7 @@
         <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,7 +1709,7 @@
         <v>4164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -1565,7 +1718,7 @@
         <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1576,7 +1729,7 @@
         <v>4164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -1585,7 +1738,7 @@
         <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1596,7 +1749,7 @@
         <v>4164</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -1605,7 +1758,7 @@
         <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1714,396 +1867,512 @@
         <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="D64" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="D69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="D77" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
+      <c r="D79" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+      <c r="D81" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+    </row>
+    <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+    </row>
+    <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A92:C92"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C94" r:id="rId1" xr:uid="{4205537A-03E8-4F94-AD4C-2C9002B2025B}"/>
+    <hyperlink ref="C95" r:id="rId2" xr:uid="{B81D1A14-9AFF-4864-A4D3-46FD40EF9F99}"/>
+    <hyperlink ref="C96" r:id="rId3" xr:uid="{E7AFEF06-B4A0-427F-94A0-250207377D09}"/>
+    <hyperlink ref="C97" r:id="rId4" xr:uid="{1518B071-D2B2-4DF0-A9CB-55CEC8C12F16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD30A18-04B8-42E0-9E13-F4ED24029528}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="10" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="10" customWidth="1"/>
@@ -2111,1593 +2380,1571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="22">
+        <v>116</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="21">
         <v>0.3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>0.3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="10">
         <v>1206</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D14" s="10">
         <v>2039</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:E43" si="0">G12-C12</f>
+      <c r="E14" s="10">
+        <f t="shared" ref="E14:E45" si="0">G14-C14</f>
         <v>42</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F43" si="1">H12-D12</f>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F45" si="1">H14-D14</f>
         <v>43</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <v>1248</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <v>2082</v>
       </c>
-      <c r="J12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="J14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="10">
         <v>1751</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D15" s="10">
         <v>2043</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <v>1806</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <v>2076</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="10">
         <v>1484</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D16" s="10">
         <v>2036</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G16" s="10">
         <v>1528</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H16" s="10">
         <v>2079</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="10">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="10">
         <v>2558</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D17" s="10">
         <v>1649</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F17" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G17" s="10">
         <v>2620</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H17" s="10">
         <v>1739</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="10">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="10">
         <v>3089</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D18" s="10">
         <v>1737</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G18" s="10">
         <v>3190</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H18" s="10">
         <v>1779</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="10">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="10">
         <v>3092</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D19" s="10">
         <v>1821</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F19" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G19" s="10">
         <v>3189</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H19" s="10">
         <v>1860</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="10">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="10">
         <v>3478</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D20" s="10">
         <v>1931</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <v>3547</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="10">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="10">
         <v>3756</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D21" s="10">
         <v>1701</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F21" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G21" s="10">
         <v>3829</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H21" s="10">
         <v>1761</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="10">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="10">
         <v>2030</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D22" s="10">
         <v>647</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F22" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <v>2142</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="10">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="10">
         <v>3323</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D23" s="10">
         <v>642</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G23" s="10">
         <v>3414</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H23" s="10">
         <v>676</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="10">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="10">
         <v>3429</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D24" s="10">
         <v>643</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F24" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G24" s="10">
         <v>3506</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H24" s="10">
         <v>677</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="10">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="10">
         <v>1835</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D25" s="10">
         <v>2771</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G25" s="10">
         <v>1933</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H25" s="10">
         <v>2837</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="10">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="10">
         <v>1775</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D26" s="10">
         <v>647</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F26" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G26" s="10">
         <v>1864</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H26" s="10">
         <v>685</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="10">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="10">
         <v>1547</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D27" s="10">
         <v>642</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G27" s="10">
         <v>1633</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H27" s="10">
         <v>690</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="10">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="10">
         <v>1306</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D28" s="10">
         <v>646</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F28" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G28" s="10">
         <v>1400</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H28" s="10">
         <v>686</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="10">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="10">
         <v>1075</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D29" s="10">
         <v>645</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F29" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G29" s="10">
         <v>1168</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H29" s="10">
         <v>712</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="10">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="10">
         <v>914</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D30" s="10">
         <v>649</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F30" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G30" s="10">
         <v>970</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H30" s="10">
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="10">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="10">
         <v>2509</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D31" s="10">
         <v>826</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F31" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G31" s="10">
         <v>2563</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H31" s="10">
         <v>875</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="10">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="10">
         <v>2245</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D32" s="10">
         <v>2310</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F32" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G32" s="10">
         <v>2300</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H32" s="10">
         <v>2377</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="10">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="10">
         <v>2520</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D33" s="10">
         <v>1363</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F33" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G33" s="10">
         <v>2571</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H33" s="10">
         <v>1423</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="10">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="10">
         <v>1444</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>2442</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F34" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G34" s="10">
         <v>1533</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H34" s="10">
         <v>2493</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="10">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="10">
         <v>3630</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D35" s="10">
         <v>1486</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F35" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G35" s="10">
         <v>3727</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H35" s="10">
         <v>1519</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="10">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="10">
         <v>3556</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D36" s="10">
         <v>1685</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E36" s="10">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F36" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G36" s="10">
         <v>3655</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H36" s="10">
         <v>1729</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="10">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="10">
         <v>1895</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D37" s="10">
         <v>643</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E37" s="10">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F37" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G37" s="10">
         <v>1978</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H37" s="10">
         <v>683</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="10">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="10">
         <v>1663</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D38" s="10">
         <v>646</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F38" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G38" s="10">
         <v>1747</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H38" s="10">
         <v>688</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="10">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="10">
         <v>1431</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D39" s="10">
         <v>648</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F39" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G39" s="10">
         <v>1515</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H39" s="10">
         <v>690</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="10">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="10">
         <v>1196</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D40" s="10">
         <v>645</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F40" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G40" s="10">
         <v>1285</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H40" s="10">
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="10">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="10">
         <v>917</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D41" s="10">
         <v>940</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F41" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G41" s="10">
         <v>953</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H41" s="10">
         <v>991</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="10">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="10">
         <v>2089</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D42" s="10">
         <v>1342</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F42" s="10">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G42" s="10">
         <v>2192</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H42" s="10">
         <v>1394</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="10">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="10">
         <v>3143</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D43" s="10">
         <v>1605</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E43" s="10">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F43" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G43" s="10">
         <v>3226</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H43" s="10">
         <v>1652</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="10">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="10">
         <v>3530</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D44" s="10">
         <v>1488</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E44" s="10">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F44" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G44" s="10">
         <v>3617</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H44" s="10">
         <v>1518</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="10">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="10">
         <v>3419</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D45" s="10">
         <v>1490</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E45" s="10">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F45" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G45" s="10">
         <v>3503</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H45" s="10">
         <v>1515</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="21" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3420</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1371</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" ref="E46:E77" si="2">G46-C46</f>
+        <v>81</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:F77" si="3">H46-D46</f>
+        <v>27</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3501</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="10">
-        <v>3420</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="C47" s="10">
+        <v>3529</v>
+      </c>
+      <c r="D47" s="10">
         <v>1371</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" ref="E44:E75" si="2">G44-C44</f>
-        <v>81</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" ref="F44:F75" si="3">H44-D44</f>
-        <v>27</v>
-      </c>
-      <c r="G44" s="10">
-        <v>3501</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C45" s="10">
-        <v>3529</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1371</v>
-      </c>
-      <c r="E45" s="10">
+      <c r="E47" s="10">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F47" s="10">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G47" s="10">
         <v>3617</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H47" s="10">
         <v>1399</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="10">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="10">
         <v>2774</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D48" s="10">
         <v>938</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E48" s="10">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F48" s="10">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G48" s="10">
         <v>2805</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H48" s="10">
         <v>978</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="10">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="10">
         <v>2831</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D49" s="10">
         <v>939</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E49" s="10">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F49" s="10">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G49" s="10">
         <v>2873</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H49" s="10">
         <v>976</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="10">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="10">
         <v>3060</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D50" s="10">
         <v>636</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E50" s="10">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F50" s="10">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G50" s="10">
         <v>3103</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H50" s="10">
         <v>682</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="10">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="10">
         <v>3629</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D51" s="10">
         <v>1370</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E51" s="10">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F51" s="10">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G51" s="10">
         <v>3727</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H51" s="10">
         <v>1403</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="10">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="10">
         <v>3064</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D52" s="10">
         <v>1604</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E52" s="10">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F52" s="10">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G52" s="10">
         <v>3141</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H52" s="10">
         <v>1641</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="10">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="10">
         <v>2731</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D53" s="10">
         <v>936</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E53" s="10">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F53" s="10">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G53" s="10">
         <v>2770</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H53" s="10">
         <v>978</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="10">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="10">
         <v>2986</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D54" s="10">
         <v>623</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E54" s="10">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F54" s="10">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G54" s="10">
         <v>3048</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H54" s="10">
         <v>679</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="10">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="10">
         <v>2307</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D55" s="10">
         <v>610</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E55" s="10">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F55" s="10">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G55" s="10">
         <v>2434</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H55" s="10">
         <v>666</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="10">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="10">
         <v>745</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D56" s="10">
         <v>1308</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E56" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F56" s="10">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G56" s="10">
         <v>885</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H56" s="10">
         <v>1346</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="10">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="10">
         <v>930</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D57" s="10">
         <v>1216</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E57" s="10">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F57" s="10">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G57" s="10">
         <v>982</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H57" s="10">
         <v>1264</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="10">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="10">
         <v>3587</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D58" s="10">
         <v>1766</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F58" s="10">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G58" s="10">
         <v>3682</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H58" s="10">
         <v>1880</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="21" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C59" s="10">
         <v>1248</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D59" s="10">
         <v>1682</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E59" s="10">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F59" s="10">
         <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G59" s="10">
         <v>1454</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H59" s="10">
         <v>2033</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="21" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C60" s="10">
         <v>1525</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D60" s="10">
         <v>1683</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E60" s="10">
         <f t="shared" si="2"/>
         <v>204</v>
-      </c>
-      <c r="F58" s="10">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-      <c r="G58" s="10">
-        <v>1729</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1804</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1681</v>
-      </c>
-      <c r="E59" s="10">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="F59" s="10">
-        <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="G59" s="10">
-        <v>2007</v>
-      </c>
-      <c r="H59" s="10">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="10">
-        <v>2675</v>
-      </c>
-      <c r="D60" s="10">
-        <v>1676</v>
-      </c>
-      <c r="E60" s="10">
-        <f t="shared" si="2"/>
-        <v>114</v>
       </c>
       <c r="F60" s="10">
         <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="G60" s="10">
-        <v>2789</v>
+        <v>1729</v>
       </c>
       <c r="H60" s="10">
-        <v>2025</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C61" s="10">
-        <v>860</v>
+        <v>1804</v>
       </c>
       <c r="D61" s="10">
-        <v>560</v>
+        <v>1681</v>
       </c>
       <c r="E61" s="10">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="F61" s="10">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="G61" s="10">
-        <v>967</v>
+        <v>2007</v>
       </c>
       <c r="H61" s="10">
-        <v>638</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>37</v>
+        <v>116</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="C62" s="10">
-        <v>1776</v>
+        <v>2675</v>
       </c>
       <c r="D62" s="10">
-        <v>732</v>
+        <v>1676</v>
       </c>
       <c r="E62" s="10">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F62" s="10">
         <f t="shared" si="3"/>
-        <v>537</v>
+        <v>349</v>
       </c>
       <c r="G62" s="10">
-        <v>1895</v>
+        <v>2789</v>
       </c>
       <c r="H62" s="10">
-        <v>1269</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>38</v>
+        <v>116</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C63" s="10">
-        <v>1543</v>
+        <v>860</v>
       </c>
       <c r="D63" s="10">
-        <v>733</v>
+        <v>560</v>
       </c>
       <c r="E63" s="10">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F63" s="10">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>78</v>
       </c>
       <c r="G63" s="10">
-        <v>1663</v>
+        <v>967</v>
       </c>
       <c r="H63" s="10">
-        <v>1268</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>39</v>
+        <v>116</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="C64" s="10">
-        <v>1315</v>
+        <v>1776</v>
       </c>
       <c r="D64" s="10">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E64" s="10">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F64" s="10">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G64" s="10">
-        <v>1431</v>
+        <v>1895</v>
       </c>
       <c r="H64" s="10">
         <v>1269</v>
@@ -3705,511 +3952,623 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>40</v>
+        <v>116</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C65" s="10">
-        <v>1082</v>
+        <v>1543</v>
       </c>
       <c r="D65" s="10">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E65" s="10">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F65" s="10">
         <f t="shared" si="3"/>
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G65" s="10">
-        <v>1201</v>
+        <v>1663</v>
       </c>
       <c r="H65" s="10">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>41</v>
+        <v>116</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C66" s="10">
-        <v>804</v>
+        <v>1315</v>
       </c>
       <c r="D66" s="10">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="E66" s="10">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F66" s="10">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>535</v>
       </c>
       <c r="G66" s="10">
-        <v>918</v>
+        <v>1431</v>
       </c>
       <c r="H66" s="10">
-        <v>936</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>42</v>
+        <v>116</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C67" s="10">
-        <v>2549</v>
+        <v>1082</v>
       </c>
       <c r="D67" s="10">
-        <v>611</v>
+        <v>735</v>
       </c>
       <c r="E67" s="10">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F67" s="10">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>536</v>
       </c>
       <c r="G67" s="10">
-        <v>2662</v>
+        <v>1201</v>
       </c>
       <c r="H67" s="10">
-        <v>820</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C68" s="10">
-        <v>2193</v>
+        <v>804</v>
       </c>
       <c r="D68" s="10">
-        <v>2392</v>
+        <v>724</v>
       </c>
       <c r="E68" s="10">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F68" s="10">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="G68" s="10">
-        <v>2269</v>
+        <v>918</v>
       </c>
       <c r="H68" s="10">
-        <v>2508</v>
+        <v>936</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C69" s="10">
-        <v>2378</v>
+        <v>2549</v>
       </c>
       <c r="D69" s="10">
-        <v>2534</v>
+        <v>611</v>
       </c>
       <c r="E69" s="10">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F69" s="10">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="G69" s="10">
-        <v>2455</v>
+        <v>2662</v>
       </c>
       <c r="H69" s="10">
-        <v>2650</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C70" s="10">
-        <v>2548</v>
+        <v>2193</v>
       </c>
       <c r="D70" s="10">
-        <v>1233</v>
+        <v>2392</v>
       </c>
       <c r="E70" s="10">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F70" s="10">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G70" s="10">
-        <v>2661</v>
+        <v>2269</v>
       </c>
       <c r="H70" s="10">
-        <v>1346</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>45</v>
+        <v>116</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C71" s="10">
-        <v>1249</v>
+        <v>2378</v>
       </c>
       <c r="D71" s="10">
-        <v>2198</v>
+        <v>2534</v>
       </c>
       <c r="E71" s="10">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="F71" s="10">
         <f t="shared" si="3"/>
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="G71" s="10">
-        <v>1385</v>
+        <v>2455</v>
       </c>
       <c r="H71" s="10">
-        <v>2601</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>46</v>
+        <v>116</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="C72" s="10">
-        <v>3235</v>
+        <v>2548</v>
       </c>
       <c r="D72" s="10">
-        <v>1333</v>
+        <v>1233</v>
       </c>
       <c r="E72" s="10">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="F72" s="10">
         <f t="shared" si="3"/>
-        <v>692</v>
+        <v>113</v>
       </c>
       <c r="G72" s="10">
-        <v>3403</v>
+        <v>2661</v>
       </c>
       <c r="H72" s="10">
-        <v>2025</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C73" s="10">
-        <v>2882</v>
+        <v>1249</v>
       </c>
       <c r="D73" s="10">
-        <v>728</v>
+        <v>2198</v>
       </c>
       <c r="E73" s="10">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F73" s="10">
         <f t="shared" si="3"/>
-        <v>1133</v>
+        <v>403</v>
       </c>
       <c r="G73" s="10">
-        <v>3053</v>
+        <v>1385</v>
       </c>
       <c r="H73" s="10">
-        <v>1861</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>49</v>
+        <v>116</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="C74" s="10">
-        <v>1894</v>
+        <v>3235</v>
       </c>
       <c r="D74" s="10">
-        <v>731</v>
+        <v>1333</v>
       </c>
       <c r="E74" s="10">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="F74" s="10">
         <f t="shared" si="3"/>
-        <v>536</v>
+        <v>692</v>
       </c>
       <c r="G74" s="10">
-        <v>2009</v>
+        <v>3403</v>
       </c>
       <c r="H74" s="10">
-        <v>1267</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>50</v>
+        <v>116</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="C75" s="10">
-        <v>1663</v>
+        <v>2882</v>
       </c>
       <c r="D75" s="10">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E75" s="10">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="F75" s="10">
         <f t="shared" si="3"/>
-        <v>535</v>
+        <v>1133</v>
       </c>
       <c r="G75" s="10">
-        <v>1776</v>
+        <v>3053</v>
       </c>
       <c r="H75" s="10">
-        <v>1269</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>51</v>
+        <v>116</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C76" s="10">
-        <v>1431</v>
+        <v>1894</v>
       </c>
       <c r="D76" s="10">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E76" s="10">
-        <f t="shared" ref="E76:E82" si="4">G76-C76</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" ref="F76:F82" si="5">H76-D76</f>
-        <v>535</v>
+        <f t="shared" si="3"/>
+        <v>536</v>
       </c>
       <c r="G76" s="10">
-        <v>1546</v>
+        <v>2009</v>
       </c>
       <c r="H76" s="10">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1663</v>
+      </c>
+      <c r="D77" s="10">
+        <v>734</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="F77" s="10">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1776</v>
+      </c>
+      <c r="H77" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1431</v>
+      </c>
+      <c r="D78" s="10">
+        <v>734</v>
+      </c>
+      <c r="E78" s="10">
+        <f t="shared" ref="E78:E86" si="4">G78-C78</f>
+        <v>115</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" ref="F78:F86" si="5">H78-D78</f>
+        <v>535</v>
+      </c>
+      <c r="G78" s="10">
+        <v>1546</v>
+      </c>
+      <c r="H78" s="10">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C79" s="10">
         <v>1199</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D79" s="10">
         <v>736</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E79" s="10">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F79" s="10">
         <f t="shared" si="5"/>
         <v>534</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G79" s="10">
         <v>1314</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H79" s="10">
         <v>1270</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="21" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C80" s="10">
         <v>806</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D80" s="10">
         <v>1005</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E80" s="10">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F80" s="10">
         <f t="shared" si="5"/>
         <v>209</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G80" s="10">
         <v>919</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H80" s="10">
         <v>1214</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="21" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C81" s="10">
         <v>2193</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D81" s="10">
         <v>1234</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E81" s="10">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F81" s="10">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G81" s="10">
         <v>2396</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H81" s="10">
         <v>1349</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="21" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C82" s="10">
         <v>546</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D82" s="10">
         <v>1897</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E82" s="10">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F82" s="10">
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G82" s="10">
         <v>686</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H82" s="10">
         <v>1982</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="21" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C83" s="10">
         <v>544</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D83" s="10">
         <v>2358</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E83" s="10">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F83" s="10">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G83" s="10">
         <v>677</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H83" s="10">
         <v>2450</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="21" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C84" s="10">
         <v>2553</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D84" s="10">
         <v>2023</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E84" s="10">
         <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F84" s="10">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G84" s="10">
         <v>2666</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H84" s="10">
         <v>2092</v>
       </c>
     </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1248</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1682</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="4"/>
+        <v>206</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="G85" s="10">
+        <v>1454</v>
+      </c>
+      <c r="H85" s="10">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="10">
+        <v>1525</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1683</v>
+      </c>
+      <c r="E86" s="10">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="G86" s="10">
+        <v>1729</v>
+      </c>
+      <c r="H86" s="10">
+        <v>2032</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:H82">
-    <sortCondition ref="B16:B82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:H84">
+    <sortCondition ref="B18:B84"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -4221,36 +4580,175 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="171.77734375" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{D253341B-D1E7-432E-92DE-85F26206AC6F}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{18345F98-4DFF-4C80-8704-C6EF50D3477E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407-22222/Data 250407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\250407-22222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D7DF4-6406-41D0-A24B-8155D27167DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E7BA4-1A5E-4763-81E8-6EF838368EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Images" sheetId="5" r:id="rId1"/>
     <sheet name="Components" sheetId="1" r:id="rId2"/>
     <sheet name="Highlights" sheetId="6" r:id="rId3"/>
-    <sheet name="Trivia" sheetId="2" r:id="rId4"/>
-    <sheet name="Troubleshooting" sheetId="3" r:id="rId5"/>
-    <sheet name="Links" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
   <si>
     <t>CIA 1</t>
   </si>
@@ -610,48 +607,6 @@
   </si>
   <si>
     <t>Datasheet for 2364</t>
-  </si>
-  <si>
-    <t>TRIVIA START</t>
-  </si>
-  <si>
-    <t>TRIVIA END</t>
-  </si>
-  <si>
-    <t>250407-01 (A (CR))</t>
-  </si>
-  <si>
-    <t>8-pin board (CN5-Video port has 8 pins).</t>
-  </si>
-  <si>
-    <t>PCB Assembly Number 250407-04.</t>
-  </si>
-  <si>
-    <t>Schematic Number 251138.</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTING START</t>
-  </si>
-  <si>
-    <t>TROUBLESHOOTIN END</t>
-  </si>
-  <si>
-    <t>LINKS START</t>
-  </si>
-  <si>
-    <t>LINKS END</t>
-  </si>
-  <si>
-    <t>Pictorial guides:</t>
-  </si>
-  <si>
-    <t>Lemon64</t>
-  </si>
-  <si>
-    <t>MyOldComputer</t>
-  </si>
-  <si>
-    <t>More stuff</t>
   </si>
   <si>
     <t>C64 250407 PCB Replica.1.1.F.png</t>
@@ -786,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -847,7 +802,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,19 +814,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1240,18 +1188,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2243,11 +2191,11 @@
       <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:4" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
     </row>
     <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
@@ -2281,11 +2229,11 @@
       <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:4" s="3" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
     </row>
     <row r="93" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
@@ -2305,7 +2253,7 @@
       <c r="B94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="23" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2316,7 +2264,7 @@
       <c r="B95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="23" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2327,7 +2275,7 @@
       <c r="B96" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="23" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2335,10 +2283,10 @@
       <c r="A97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="23" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2366,7 +2314,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2380,15 +2328,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -2452,7 +2400,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>165</v>
@@ -2469,7 +2417,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>170</v>
@@ -4512,7 +4460,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>32</v>
@@ -4540,7 +4488,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>33</v>
@@ -4576,179 +4524,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B86F22-EFC1-43D5-B548-DDEDDDBE5E13}">
-  <dimension ref="A2:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="171.77734375" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519DFCC-A664-4B71-859C-4D1D578ADE04}">
-  <dimension ref="A4:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF6E09E-B5BF-4B73-B79A-A473EDB66B5F}">
-  <dimension ref="A2:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{D253341B-D1E7-432E-92DE-85F26206AC6F}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{18345F98-4DFF-4C80-8704-C6EF50D3477E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>